--- a/DLS_Plots/20240119_DLS_DIPLibrary_NP5_pDNA10_finalrepeat_water copy.xlsx
+++ b/DLS_Plots/20240119_DLS_DIPLibrary_NP5_pDNA10_finalrepeat_water copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/DLS_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2B34220-9663-4042-ACB5-5F5851653C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC28932A-87D0-4D44-903C-0A6DAD849373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1260" windowWidth="25040" windowHeight="14820" activeTab="1" xr2:uid="{0CD72A56-0C06-2945-9812-5608819C42F3}"/>
+    <workbookView xWindow="560" yWindow="1260" windowWidth="25040" windowHeight="14820" xr2:uid="{0CD72A56-0C06-2945-9812-5608819C42F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Polymer</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>G3</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -414,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD033533-BD20-F746-B08C-D1DADC9B6555}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,7 +442,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>291.29000000000002</v>
@@ -447,7 +453,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>270.66666666666669</v>
@@ -499,7 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0872DF-97EF-6340-A3BB-324A61FEA603}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
